--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_481__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_481__Reeval_LHS_Modell_1.3.xlsx
@@ -5873,22 +5873,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>73.73308563232422</c:v>
+                  <c:v>73.73309326171875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.42328643798828</c:v>
+                  <c:v>70.42329406738281</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>67.00293731689453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.06143188476562</c:v>
+                  <c:v>63.06143951416016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>71.79251098632812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.25101470947266</c:v>
+                  <c:v>71.25103759765625</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>68.70790863037109</c:v>
@@ -5897,43 +5897,43 @@
                   <c:v>71.89553070068359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.96014404296875</c:v>
+                  <c:v>64.96013641357422</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.62255859375</c:v>
+                  <c:v>67.62255096435547</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75.7579345703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.40858459472656</c:v>
+                  <c:v>73.40857696533203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.50272369384766</c:v>
+                  <c:v>70.50274658203125</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>71.66977691650391</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.26312255859375</c:v>
+                  <c:v>69.26310729980469</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69.35009765625</c:v>
+                  <c:v>69.35009002685547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.17308044433594</c:v>
+                  <c:v>70.17308807373047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.83868408203125</c:v>
+                  <c:v>67.83869171142578</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>64.38434600830078</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.70013427734375</c:v>
+                  <c:v>72.70011901855469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72.11737060546875</c:v>
+                  <c:v>72.11736297607422</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>66.43168640136719</c:v>
@@ -5942,13 +5942,13 @@
                   <c:v>70.16001129150391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.28447723388672</c:v>
+                  <c:v>67.28446197509766</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>65.32495880126953</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65.10800933837891</c:v>
+                  <c:v>65.10800170898438</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>68.11333465576172</c:v>
@@ -5957,25 +5957,25 @@
                   <c:v>66.88072967529297</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66.62950897216797</c:v>
+                  <c:v>66.62949371337891</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>65.52351379394531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>64.76427459716797</c:v>
+                  <c:v>64.7642822265625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.38378143310547</c:v>
+                  <c:v>69.38377380371094</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.449462890625</c:v>
+                  <c:v>66.44947814941406</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70.45578002929688</c:v>
+                  <c:v>70.45579528808594</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63.94434356689453</c:v>
+                  <c:v>63.94435882568359</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>67.65409851074219</c:v>
@@ -5984,37 +5984,37 @@
                   <c:v>66.31120300292969</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.25681304931641</c:v>
+                  <c:v>69.25682067871094</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>66.83224487304688</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72.17085266113281</c:v>
+                  <c:v>72.17084503173828</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.21116638183594</c:v>
+                  <c:v>70.21117401123047</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>72.53097534179688</c:v>
+                  <c:v>72.53098297119141</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>60.7215576171875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.34075164794922</c:v>
+                  <c:v>67.34075927734375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>69.48500061035156</c:v>
+                  <c:v>69.4849853515625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>69.39362335205078</c:v>
+                  <c:v>69.39359283447266</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>69.49954986572266</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>73.18498229980469</c:v>
+                  <c:v>73.18497467041016</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>75.50890350341797</c:v>
@@ -6023,40 +6023,40 @@
                   <c:v>66.89164733886719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>70.37041473388672</c:v>
+                  <c:v>70.37042236328125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>68.79666900634766</c:v>
+                  <c:v>68.79668426513672</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>64.87202453613281</c:v>
+                  <c:v>64.87203979492188</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>75.03456115722656</c:v>
+                  <c:v>75.03457641601562</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.32244110107422</c:v>
+                  <c:v>70.32242584228516</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>71.77351379394531</c:v>
+                  <c:v>71.77352905273438</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>68.79263305664062</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>70.58384704589844</c:v>
+                  <c:v>70.58383941650391</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>60.71484375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>73.41862487792969</c:v>
+                  <c:v>73.41861724853516</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>77.13359832763672</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>69.29958343505859</c:v>
+                  <c:v>69.29959106445312</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>69.42485046386719</c:v>
@@ -6065,10 +6065,10 @@
                   <c:v>70.68096923828125</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>70.63404846191406</c:v>
+                  <c:v>70.63405609130859</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>71.89118194580078</c:v>
+                  <c:v>71.89117431640625</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>67.38840484619141</c:v>
@@ -6080,88 +6080,88 @@
                   <c:v>69.52886962890625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>67.88677215576172</c:v>
+                  <c:v>67.88676452636719</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>63.64363861083984</c:v>
+                  <c:v>63.64365386962891</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.03467559814453</c:v>
+                  <c:v>70.03468322753906</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>68.49497222900391</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>67.24459075927734</c:v>
+                  <c:v>67.24457550048828</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>68.93189239501953</c:v>
+                  <c:v>68.931884765625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>68.90699768066406</c:v>
+                  <c:v>68.906982421875</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>64.745849609375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>70.86692810058594</c:v>
+                  <c:v>70.86693572998047</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>74.58026123046875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>67.00966644287109</c:v>
+                  <c:v>67.00965118408203</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>71.41342163085938</c:v>
+                  <c:v>71.41340637207031</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>65.08458709716797</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>73.45366668701172</c:v>
+                  <c:v>73.45365905761719</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>72.74555206298828</c:v>
+                  <c:v>72.74554443359375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>70.78206634521484</c:v>
+                  <c:v>70.78205871582031</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>60.85471343994141</c:v>
+                  <c:v>60.85472869873047</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>76.54473876953125</c:v>
+                  <c:v>76.54474639892578</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>72.13843536376953</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>74.02370452880859</c:v>
+                  <c:v>74.02371215820312</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>68.21841430664062</c:v>
+                  <c:v>68.21839904785156</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>63.48599243164062</c:v>
+                  <c:v>63.48598480224609</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>64.98052215576172</c:v>
+                  <c:v>64.98052978515625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>70.17633819580078</c:v>
+                  <c:v>70.17634582519531</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>67.30492401123047</c:v>
+                  <c:v>67.30491638183594</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>64.72846984863281</c:v>
+                  <c:v>64.72847747802734</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>74.01218414306641</c:v>
+                  <c:v>74.01219177246094</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>69.12838745117188</c:v>
+                  <c:v>69.12839508056641</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>64.3681640625</c:v>
@@ -6859,7 +6859,7 @@
         <v>73.39830000000001</v>
       </c>
       <c r="F2">
-        <v>73.73308563232422</v>
+        <v>73.73309326171875</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>59.1361</v>
       </c>
       <c r="F3">
-        <v>70.42328643798828</v>
+        <v>70.42329406738281</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>63.06143188476562</v>
+        <v>63.06143951416016</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>71.25101470947266</v>
+        <v>71.25103759765625</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>64.96014404296875</v>
+        <v>64.96013641357422</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>67.62255859375</v>
+        <v>67.62255096435547</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>73.40858459472656</v>
+        <v>73.40857696533203</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>70.50272369384766</v>
+        <v>70.50274658203125</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>69.26312255859375</v>
+        <v>69.26310729980469</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>72.40949999999999</v>
       </c>
       <c r="F17">
-        <v>69.35009765625</v>
+        <v>69.35009002685547</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>87.605</v>
       </c>
       <c r="F18">
-        <v>70.17308044433594</v>
+        <v>70.17308807373047</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>69.9408</v>
       </c>
       <c r="F19">
-        <v>67.83868408203125</v>
+        <v>67.83869171142578</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>72.70013427734375</v>
+        <v>72.70011901855469</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>76.97450000000001</v>
       </c>
       <c r="F22">
-        <v>72.11737060546875</v>
+        <v>72.11736297607422</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>67.28447723388672</v>
+        <v>67.28446197509766</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>36.6299</v>
       </c>
       <c r="F27">
-        <v>65.10800933837891</v>
+        <v>65.10800170898438</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>47.6665</v>
       </c>
       <c r="F30">
-        <v>66.62950897216797</v>
+        <v>66.62949371337891</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>64.76427459716797</v>
+        <v>64.7642822265625</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>69.38378143310547</v>
+        <v>69.38377380371094</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>66.449462890625</v>
+        <v>66.44947814941406</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.6055</v>
       </c>
       <c r="F35">
-        <v>70.45578002929688</v>
+        <v>70.45579528808594</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>63.94434356689453</v>
+        <v>63.94435882568359</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>84.6387</v>
       </c>
       <c r="F39">
-        <v>69.25681304931641</v>
+        <v>69.25682067871094</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>72.17085266113281</v>
+        <v>72.17084503173828</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>70.21116638183594</v>
+        <v>70.21117401123047</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.9358</v>
       </c>
       <c r="F43">
-        <v>72.53097534179688</v>
+        <v>72.53098297119141</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>88.4863</v>
       </c>
       <c r="F45">
-        <v>67.34075164794922</v>
+        <v>67.34075927734375</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>69.48500061035156</v>
+        <v>69.4849853515625</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>69.39362335205078</v>
+        <v>69.39359283447266</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>53.5828</v>
       </c>
       <c r="F49">
-        <v>73.18498229980469</v>
+        <v>73.18497467041016</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>68.0436</v>
       </c>
       <c r="F52">
-        <v>70.37041473388672</v>
+        <v>70.37042236328125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>82.1609</v>
       </c>
       <c r="F53">
-        <v>68.79666900634766</v>
+        <v>68.79668426513672</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>64.87202453613281</v>
+        <v>64.87203979492188</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>75.03456115722656</v>
+        <v>75.03457641601562</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>70.32244110107422</v>
+        <v>70.32242584228516</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>86.1382</v>
       </c>
       <c r="F57">
-        <v>71.77351379394531</v>
+        <v>71.77352905273438</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>54.8399</v>
       </c>
       <c r="F59">
-        <v>70.58384704589844</v>
+        <v>70.58383941650391</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>43.5825</v>
       </c>
       <c r="F61">
-        <v>73.41862487792969</v>
+        <v>73.41861724853516</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>43.8297</v>
       </c>
       <c r="F63">
-        <v>69.29958343505859</v>
+        <v>69.29959106445312</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>66.16630000000001</v>
       </c>
       <c r="F66">
-        <v>70.63404846191406</v>
+        <v>70.63405609130859</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>71.89118194580078</v>
+        <v>71.89117431640625</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>48.8963</v>
       </c>
       <c r="F71">
-        <v>67.88677215576172</v>
+        <v>67.88676452636719</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>67.99120000000001</v>
       </c>
       <c r="F72">
-        <v>63.64363861083984</v>
+        <v>63.64365386962891</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>70.03467559814453</v>
+        <v>70.03468322753906</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>67.24459075927734</v>
+        <v>67.24457550048828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>68.93189239501953</v>
+        <v>68.931884765625</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>78.3785</v>
       </c>
       <c r="F77">
-        <v>68.90699768066406</v>
+        <v>68.906982421875</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>70.86692810058594</v>
+        <v>70.86693572998047</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>67.00966644287109</v>
+        <v>67.00965118408203</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>59.0528</v>
       </c>
       <c r="F82">
-        <v>71.41342163085938</v>
+        <v>71.41340637207031</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>77.9639</v>
       </c>
       <c r="F84">
-        <v>73.45366668701172</v>
+        <v>73.45365905761719</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>72.74555206298828</v>
+        <v>72.74554443359375</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>68.0429</v>
       </c>
       <c r="F86">
-        <v>70.78206634521484</v>
+        <v>70.78205871582031</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>60.85471343994141</v>
+        <v>60.85472869873047</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>63.2242</v>
       </c>
       <c r="F88">
-        <v>76.54473876953125</v>
+        <v>76.54474639892578</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>65.8325</v>
       </c>
       <c r="F90">
-        <v>74.02370452880859</v>
+        <v>74.02371215820312</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>68.21841430664062</v>
+        <v>68.21839904785156</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>63.48599243164062</v>
+        <v>63.48598480224609</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>77.9066</v>
       </c>
       <c r="F93">
-        <v>64.98052215576172</v>
+        <v>64.98052978515625</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>70.17633819580078</v>
+        <v>70.17634582519531</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>67.30492401123047</v>
+        <v>67.30491638183594</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>64.72846984863281</v>
+        <v>64.72847747802734</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>81.25369999999999</v>
       </c>
       <c r="F97">
-        <v>74.01218414306641</v>
+        <v>74.01219177246094</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>69.12838745117188</v>
+        <v>69.12839508056641</v>
       </c>
     </row>
     <row r="99" spans="1:6">
